--- a/biology/Botanique/Adolf_Pansch/Adolf_Pansch.xlsx
+++ b/biology/Botanique/Adolf_Pansch/Adolf_Pansch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Pansch (Eutin, 2 mars 1841-Fœrde de Kiel, 14 août 1887), est un anatomiste et naturaliste allemand. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès 1860, il étudie la médecine et les sciences naturelles à Berlin et à Heidelberg puis de 1862 à 1864, la médecine à Berlin et à Halle. Après l'obtention de son diplôme, il devient prosecteur au musée anatomique de l'Université de Kiel où, en 1866, il commence à enseigner la faculté de médecine[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1860, il étudie la médecine et les sciences naturelles à Berlin et à Heidelberg puis de 1862 à 1864, la médecine à Berlin et à Halle. Après l'obtention de son diplôme, il devient prosecteur au musée anatomique de l'Université de Kiel où, en 1866, il commence à enseigner la faculté de médecine. 
 En 1869-1870, il participe à la deuxième expédition polaire allemande au pôle Nord, à propos de laquelle il publie à son retour des travaux sur l'histoire naturelle de l'Arctique.
 Il devient en 1874 professeur agrégé à l'Université de Kiel et meurt à 46 ans lors d'une excursion en bateau à voile dans le Fœrde de Kiel. 
-Son nom est associé à la Fissure de Pansch, décrivant une fissure cérébrale s'étalant de l'extrémité inférieure du sillon central jusqu'à la fin du lobe occipital[2].
+Son nom est associé à la Fissure de Pansch, décrivant une fissure cérébrale s'étalant de l'extrémité inférieure du sillon central jusqu'à la fin du lobe occipital.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De pyorrhoea alveolari seu gingivitide expulsiva, thèse, 1864
 De sulcis et gyris in cerebris simiarum et hominum, 1866
